--- a/Pikatea R26 macropad/Pikatea R26 Macropad/Gerbers/R26_BOM.xlsx
+++ b/Pikatea R26 macropad/Pikatea R26 Macropad/Gerbers/R26_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackr\Documents\KiCad\PikateaPCB\Pikatea R26 macropad\Pikatea R26 Macropad\Gerbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B59C6CE8-A8D5-48E0-91C7-11105DDF4D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2E4E97-68C6-4B26-B2A7-1E3EE317642B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="492" windowWidth="23040" windowHeight="11328" xr2:uid="{0B457036-EAB7-4E68-87FB-C40096EF0486}"/>
+    <workbookView xWindow="480" yWindow="768" windowWidth="23040" windowHeight="11328" xr2:uid="{0B457036-EAB7-4E68-87FB-C40096EF0486}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -50,18 +50,6 @@
     <t>Designation</t>
   </si>
   <si>
-    <t>Supplier and ref</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>AVR_ICSP_3x2</t>
-  </si>
-  <si>
-    <t>AVR-ISP-6</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
@@ -125,15 +113,6 @@
     <t>ATMEGA32U4-EP</t>
   </si>
   <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>Encoder-BI_EN11_HSM0E</t>
-  </si>
-  <si>
-    <t>Rotary_Encoder_Switch</t>
-  </si>
-  <si>
     <t>R_HWB1</t>
   </si>
   <si>
@@ -189,19 +168,57 @@
   </si>
   <si>
     <t>1u</t>
+  </si>
+  <si>
+    <t>HRO</t>
+  </si>
+  <si>
+    <t>K2-1187SQ-D4SW-06</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>Jing Extension of the Electronic Co.</t>
+  </si>
+  <si>
+    <t>920-462A2021D10102</t>
+  </si>
+  <si>
+    <t>Yangxing Tech</t>
+  </si>
+  <si>
+    <t>X322516MLB4SI</t>
+  </si>
+  <si>
+    <t>MF-MSMF075-2</t>
+  </si>
+  <si>
+    <t>Bourns Inc.</t>
+  </si>
+  <si>
+    <t>TYPE-C-31-M-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,8 +241,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,21 +560,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9785E0B-5387-4949-84E0-F7303A96F7D4}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,198 +592,181 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -771,109 +775,116 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>